--- a/biology/Biologie cellulaire et moléculaire/SH2B3/SH2B3.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/SH2B3/SH2B3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SH2B3 est une protéine adaptatrice. Son gène, SH2B3, est situé sur le chromosome 12 humain. Il est également appelé LNK pour « lymphocyte adapter protein »
 </t>
@@ -511,9 +523,11 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il interagit avec JAK2 et intervient dans l'hématopoïèse[5], inhibant, en particulier, la Thrombocytopoïèse.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il interagit avec JAK2 et intervient dans l'hématopoïèse, inhibant, en particulier, la Thrombocytopoïèse.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un variant est associé avec un taux de LDL cholestérol plus bas[6]. D'autres semblent corrélés avec une augmentation du risque d'infarctus du myocarde
-[7] ou de maladie cœliaque[8].
-Une mutation du gène avec perte de fonction favorise la formation de thrombocytes et augmente le taux de cholestérol ce qui pourrait favoriser la survenue de maladies cardiovasculaires[9].
-Certaines mutations sont impliquées dans les syndromes myéloprolifératifs familiaux[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un variant est associé avec un taux de LDL cholestérol plus bas. D'autres semblent corrélés avec une augmentation du risque d'infarctus du myocarde
+ ou de maladie cœliaque.
+Une mutation du gène avec perte de fonction favorise la formation de thrombocytes et augmente le taux de cholestérol ce qui pourrait favoriser la survenue de maladies cardiovasculaires.
+Certaines mutations sont impliquées dans les syndromes myéloprolifératifs familiaux.
 </t>
         </is>
       </c>
